--- a/public/templates/MCD表批导模板V4.0.xlsx
+++ b/public/templates/MCD表批导模板V4.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840" activeTab="1"/>
+    <workbookView windowWidth="24000" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="拆分部件" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="649">
   <si>
     <t>拆分部件-批导模板
 ——标注黄色的为必填项</t>
@@ -155,10 +155,10 @@
     <t>报告日期(yyyy-MM-dd)</t>
   </si>
   <si>
-    <t>均质材料成分代码</t>
-  </si>
-  <si>
-    <t>均质材料成分名称</t>
+    <t>物质代码</t>
+  </si>
+  <si>
+    <t>物质名称</t>
   </si>
   <si>
     <t>是否限用物质</t>
@@ -187,12 +187,6 @@
   <si>
     <t>测试记录表-批导模板
 ——标注黄色的为必填项</t>
-  </si>
-  <si>
-    <t>物质代码</t>
-  </si>
-  <si>
-    <t>物质名称</t>
   </si>
   <si>
     <t>含量值类型</t>
@@ -2137,12 +2131,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2182,32 +2176,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2219,106 +2192,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2334,7 +2208,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2345,6 +2242,89 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2359,7 +2339,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2392,7 +2372,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2404,7 +2468,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2416,37 +2504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2458,55 +2522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2518,61 +2534,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2603,9 +2577,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2621,41 +2606,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2678,8 +2628,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2698,151 +2648,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2898,7 +2872,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2908,7 +2882,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3273,7 +3247,7 @@
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -3333,7 +3307,7 @@
   <sheetPr/>
   <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -3424,14 +3398,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J994">
       <formula1>备注!$A$2:$A$278</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L33">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S76">
       <formula1>备注!$F$2:$F$25</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1000">
       <formula1>备注!$C$2:$C$26</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L33">
-      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3498,10 +3472,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>14</v>
@@ -3513,10 +3487,10 @@
         <v>16</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P1" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="26" t="s">
         <v>19</v>
@@ -3565,10 +3539,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>15</v>
@@ -3577,319 +3551,319 @@
         <v>16</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" ht="12.75" spans="1:6">
       <c r="A9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="F9" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" ht="12.75" spans="1:6">
       <c r="A11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="F11" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" ht="12.75" spans="1:6">
       <c r="A12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="F12" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" ht="12.75" spans="1:6">
       <c r="A13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="F13" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" ht="24" spans="1:6">
       <c r="A14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="F14" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" ht="12.75" spans="1:6">
       <c r="A15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="D15" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="F15" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="16" ht="12.75" spans="1:6">
       <c r="A16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="F16" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" ht="36" spans="1:6">
       <c r="A17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="F17" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" ht="12.75" spans="1:6">
       <c r="A18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="F18" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" ht="12.75" spans="1:6">
       <c r="A19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="F19" s="14">
         <v>24</v>
@@ -3897,16 +3871,16 @@
     </row>
     <row r="20" ht="12.75" spans="1:6">
       <c r="A20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="F20" s="14">
         <v>29</v>
@@ -3914,16 +3888,16 @@
     </row>
     <row r="21" ht="24" spans="1:6">
       <c r="A21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="F21" s="14">
         <v>32</v>
@@ -3931,16 +3905,16 @@
     </row>
     <row r="22" ht="12.75" spans="1:6">
       <c r="A22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="F22" s="14">
         <v>34</v>
@@ -3948,16 +3922,16 @@
     </row>
     <row r="23" ht="24" spans="1:6">
       <c r="A23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="F23" s="14">
         <v>37</v>
@@ -3965,2066 +3939,2066 @@
     </row>
     <row r="24" ht="12.75" spans="1:6">
       <c r="A24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="F24" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="25" ht="12.75" spans="1:6">
       <c r="A25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="D25" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="F25" s="14" t="s">
         <v>143</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" ht="12.75" spans="1:2">
       <c r="A40" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" ht="24" spans="1:2">
       <c r="A47" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" ht="24" spans="1:2">
       <c r="A48" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" ht="24" spans="1:2">
       <c r="A76" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" ht="24" spans="1:2">
       <c r="A77" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" ht="24" spans="1:2">
       <c r="A78" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" ht="36" spans="1:2">
       <c r="A81" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" ht="24" spans="1:2">
       <c r="A82" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="103" ht="24" spans="1:2">
       <c r="A103" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="104" ht="48" spans="1:2">
       <c r="A104" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="109" ht="36" spans="1:2">
       <c r="A109" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" ht="24" spans="1:2">
       <c r="A111" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" ht="24" spans="1:2">
       <c r="A112" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="113" ht="24" spans="1:2">
       <c r="A113" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" ht="36" spans="1:2">
       <c r="A116" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" ht="60" spans="1:2">
       <c r="A117" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="121" ht="24" spans="1:2">
       <c r="A121" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="122" ht="24" spans="1:2">
       <c r="A122" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="123" ht="24" spans="1:2">
       <c r="A123" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="124" ht="36" spans="1:2">
       <c r="A124" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="143" ht="24" spans="1:2">
       <c r="A143" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="145" ht="24" spans="1:2">
       <c r="A145" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="153" ht="24" spans="1:2">
       <c r="A153" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="195" ht="36" spans="1:2">
       <c r="A195" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="196" ht="24" spans="1:2">
       <c r="A196" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="206" ht="24" spans="1:2">
       <c r="A206" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="230" ht="24" spans="1:2">
       <c r="A230" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="7" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>

--- a/public/templates/MCD表批导模板V4.0.xlsx
+++ b/public/templates/MCD表批导模板V4.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840"/>
+    <workbookView windowWidth="24000" windowHeight="9840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="拆分部件" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="651">
   <si>
     <t>拆分部件-批导模板
 ——标注黄色的为必填项</t>
@@ -155,10 +155,10 @@
     <t>报告日期(yyyy-MM-dd)</t>
   </si>
   <si>
-    <t>物质代码</t>
-  </si>
-  <si>
-    <t>物质名称</t>
+    <t>均质材料成分代码</t>
+  </si>
+  <si>
+    <t>均质材料成分名称</t>
   </si>
   <si>
     <t>是否限用物质</t>
@@ -187,6 +187,12 @@
   <si>
     <t>测试记录表-批导模板
 ——标注黄色的为必填项</t>
+  </si>
+  <si>
+    <t>物质代码</t>
+  </si>
+  <si>
+    <t>物质名称</t>
   </si>
   <si>
     <t>含量值类型</t>
@@ -2132,9 +2138,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2198,27 +2204,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2231,37 +2229,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2283,7 +2251,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2297,17 +2304,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2315,16 +2328,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2372,7 +2378,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2384,37 +2468,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2432,7 +2498,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2444,109 +2540,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2577,17 +2583,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -2596,16 +2591,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2627,9 +2631,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2659,16 +2665,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2678,10 +2684,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2693,130 +2699,130 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3247,7 +3253,7 @@
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -3307,8 +3313,8 @@
   <sheetPr/>
   <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3398,14 +3404,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J994">
       <formula1>备注!$A$2:$A$278</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L33">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S76">
       <formula1>备注!$F$2:$F$25</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1000">
       <formula1>备注!$C$2:$C$26</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L33">
+      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3472,10 +3478,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>14</v>
@@ -3487,10 +3493,10 @@
         <v>16</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P1" s="25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="26" t="s">
         <v>19</v>
@@ -3539,10 +3545,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>15</v>
@@ -3551,319 +3557,319 @@
         <v>16</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" ht="12.75" spans="1:6">
       <c r="A9" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" ht="12.75" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" ht="12.75" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" ht="12.75" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" ht="24" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" ht="12.75" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" ht="12.75" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" ht="36" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" ht="12.75" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" ht="12.75" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F19" s="14">
         <v>24</v>
@@ -3871,16 +3877,16 @@
     </row>
     <row r="20" ht="12.75" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F20" s="14">
         <v>29</v>
@@ -3888,16 +3894,16 @@
     </row>
     <row r="21" ht="24" spans="1:6">
       <c r="A21" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F21" s="14">
         <v>32</v>
@@ -3905,16 +3911,16 @@
     </row>
     <row r="22" ht="12.75" spans="1:6">
       <c r="A22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F22" s="14">
         <v>34</v>
@@ -3922,16 +3928,16 @@
     </row>
     <row r="23" ht="24" spans="1:6">
       <c r="A23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="14">
         <v>37</v>
@@ -3939,2066 +3945,2066 @@
     </row>
     <row r="24" ht="12.75" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" ht="12.75" spans="1:6">
       <c r="A25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" ht="12.75" spans="1:2">
       <c r="A40" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" ht="24" spans="1:2">
       <c r="A47" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" ht="24" spans="1:2">
       <c r="A48" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" ht="24" spans="1:2">
       <c r="A76" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" ht="24" spans="1:2">
       <c r="A77" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" ht="24" spans="1:2">
       <c r="A78" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" ht="36" spans="1:2">
       <c r="A81" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" ht="24" spans="1:2">
       <c r="A82" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="103" ht="24" spans="1:2">
       <c r="A103" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104" ht="48" spans="1:2">
       <c r="A104" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="109" ht="36" spans="1:2">
       <c r="A109" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" ht="24" spans="1:2">
       <c r="A111" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="112" ht="24" spans="1:2">
       <c r="A112" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" ht="24" spans="1:2">
       <c r="A113" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="116" ht="36" spans="1:2">
       <c r="A116" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" ht="60" spans="1:2">
       <c r="A117" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="121" ht="24" spans="1:2">
       <c r="A121" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="122" ht="24" spans="1:2">
       <c r="A122" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="123" ht="24" spans="1:2">
       <c r="A123" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="124" ht="36" spans="1:2">
       <c r="A124" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="143" ht="24" spans="1:2">
       <c r="A143" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="145" ht="24" spans="1:2">
       <c r="A145" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="153" ht="24" spans="1:2">
       <c r="A153" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="195" ht="36" spans="1:2">
       <c r="A195" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="196" ht="24" spans="1:2">
       <c r="A196" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="206" ht="24" spans="1:2">
       <c r="A206" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="230" ht="24" spans="1:2">
       <c r="A230" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/public/templates/MCD表批导模板V4.0.xlsx
+++ b/public/templates/MCD表批导模板V4.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840" activeTab="1"/>
+    <workbookView windowHeight="16180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="拆分部件" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651">
   <si>
     <t>拆分部件-批导模板
 ——标注黄色的为必填项</t>
@@ -2137,12 +2137,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2166,12 +2166,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2179,6 +2173,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2191,16 +2191,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2213,23 +2252,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2244,53 +2275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2305,7 +2290,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2319,6 +2304,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -2328,21 +2321,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -2378,7 +2367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2390,7 +2379,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2402,19 +2433,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2426,91 +2487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2534,25 +2511,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2581,6 +2570,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2605,15 +2618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2625,41 +2629,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2678,155 +2647,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2838,51 +2827,51 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2903,57 +2892,60 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -3249,7 +3241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -3257,7 +3249,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="28.75" style="22" customWidth="1"/>
     <col min="2" max="2" width="7.375" style="22" customWidth="1"/>
@@ -3301,7 +3293,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
@@ -3309,15 +3301,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="27" style="22" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="22" customWidth="1"/>
@@ -3404,32 +3396,32 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J994">
       <formula1>备注!$A$2:$A$278</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S76">
-      <formula1>备注!$F$2:$F$25</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L33">
+      <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1000">
       <formula1>备注!$C$2:$C$26</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L33">
-      <formula1>"是,否"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S76">
+      <formula1>备注!$F$2:$F$25</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView topLeftCell="E988" workbookViewId="0">
-      <selection activeCell="E1257" sqref="$A1001:$XFD1257"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="27.25" style="22" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="22" customWidth="1"/>
@@ -3445,7 +3437,7 @@
     <col min="14" max="14" width="12.875" style="22" customWidth="1"/>
     <col min="15" max="15" width="13.625" style="22" customWidth="1"/>
     <col min="16" max="16" width="9" style="22"/>
-    <col min="17" max="17" width="12.5" style="22" customWidth="1"/>
+    <col min="17" max="17" width="16.8269230769231" style="22" customWidth="1"/>
     <col min="18" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
@@ -3498,33 +3490,30 @@
       <c r="P1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="28" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1000">
       <formula1>备注!$A$2:$A$278</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1000">
+      <formula1>备注!$C$2:$C$26</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1000">
       <formula1>备注!$E$2:$E$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1000">
-      <formula1>备注!$C$2:$C$26</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q33">
-      <formula1>备注!#REF!</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F278"/>
   <sheetViews>
@@ -3532,7 +3521,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.75" style="1" customWidth="1"/>
@@ -3543,7 +3532,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="15" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3556,2459 +3545,2459 @@
       <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+    <row r="2" ht="15" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+    <row r="3" ht="15" spans="1:6">
+      <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+    <row r="4" ht="15" spans="1:6">
+      <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+    <row r="5" ht="15" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+    <row r="6" ht="15" spans="1:6">
+      <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
+    <row r="7" ht="15" spans="1:6">
+      <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
+    <row r="8" ht="15" spans="1:6">
+      <c r="A8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" ht="12.75" spans="1:6">
-      <c r="A9" s="12" t="s">
+    <row r="9" ht="15" spans="1:6">
+      <c r="A9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
+    <row r="10" ht="29" spans="1:6">
+      <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" ht="12.75" spans="1:6">
-      <c r="A11" s="7" t="s">
+    <row r="11" ht="15" spans="1:6">
+      <c r="A11" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" ht="12.75" spans="1:6">
-      <c r="A12" s="7" t="s">
+    <row r="12" ht="15" spans="1:6">
+      <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" ht="12.75" spans="1:6">
-      <c r="A13" s="7" t="s">
+    <row r="13" ht="29" spans="1:6">
+      <c r="A13" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" ht="24" spans="1:6">
-      <c r="A14" s="7" t="s">
+    <row r="14" ht="44" spans="1:6">
+      <c r="A14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" ht="12.75" spans="1:6">
-      <c r="A15" s="7" t="s">
+    <row r="15" ht="15" spans="1:6">
+      <c r="A15" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" ht="12.75" spans="1:6">
-      <c r="A16" s="7" t="s">
+    <row r="16" ht="15" spans="1:6">
+      <c r="A16" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" ht="36" spans="1:6">
-      <c r="A17" s="7" t="s">
+    <row r="17" ht="44" spans="1:6">
+      <c r="A17" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" ht="12.75" spans="1:6">
-      <c r="A18" s="7" t="s">
+    <row r="18" ht="15" spans="1:6">
+      <c r="A18" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" ht="12.75" spans="1:6">
-      <c r="A19" s="7" t="s">
+    <row r="19" ht="15" spans="1:6">
+      <c r="A19" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="19">
         <v>24</v>
       </c>
     </row>
-    <row r="20" ht="12.75" spans="1:6">
-      <c r="A20" s="7" t="s">
+    <row r="20" ht="15" spans="1:6">
+      <c r="A20" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="19">
         <v>29</v>
       </c>
     </row>
-    <row r="21" ht="24" spans="1:6">
-      <c r="A21" s="7" t="s">
+    <row r="21" ht="29" spans="1:6">
+      <c r="A21" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="19">
         <v>32</v>
       </c>
     </row>
-    <row r="22" ht="12.75" spans="1:6">
-      <c r="A22" s="7" t="s">
+    <row r="22" ht="15" spans="1:6">
+      <c r="A22" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="19">
         <v>34</v>
       </c>
     </row>
-    <row r="23" ht="24" spans="1:6">
-      <c r="A23" s="7" t="s">
+    <row r="23" ht="29" spans="1:6">
+      <c r="A23" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="19">
         <v>37</v>
       </c>
     </row>
-    <row r="24" ht="12.75" spans="1:6">
-      <c r="A24" s="7" t="s">
+    <row r="24" ht="29" spans="1:6">
+      <c r="A24" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="19" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="25" ht="12.75" spans="1:6">
-      <c r="A25" s="7" t="s">
+    <row r="25" ht="15" spans="1:6">
+      <c r="A25" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="7" t="s">
+    <row r="26" ht="15" spans="1:4">
+      <c r="A26" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="7" t="s">
+    <row r="27" ht="15" spans="1:2">
+      <c r="A27" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="7" t="s">
+    <row r="28" ht="15" spans="1:2">
+      <c r="A28" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="7" t="s">
+    <row r="29" ht="15" spans="1:2">
+      <c r="A29" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="7" t="s">
+    <row r="30" ht="15" spans="1:2">
+      <c r="A30" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="7" t="s">
+    <row r="31" ht="15" spans="1:2">
+      <c r="A31" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="7" t="s">
+    <row r="32" ht="29" spans="1:2">
+      <c r="A32" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="7" t="s">
+    <row r="33" ht="15" spans="1:2">
+      <c r="A33" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="7" t="s">
+    <row r="34" ht="15" spans="1:2">
+      <c r="A34" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="7" t="s">
+    <row r="35" ht="15" spans="1:2">
+      <c r="A35" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="7" t="s">
+    <row r="36" ht="15" spans="1:2">
+      <c r="A36" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="7" t="s">
+    <row r="37" ht="15" spans="1:2">
+      <c r="A37" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="7" t="s">
+    <row r="38" ht="15" spans="1:2">
+      <c r="A38" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="7" t="s">
+    <row r="39" ht="15" spans="1:2">
+      <c r="A39" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="40" ht="12.75" spans="1:2">
-      <c r="A40" s="7" t="s">
+    <row r="40" ht="29" spans="1:2">
+      <c r="A40" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="18" t="s">
+    <row r="41" ht="15" spans="1:2">
+      <c r="A41" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="7" t="s">
+    <row r="42" ht="29" spans="1:2">
+      <c r="A42" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="7" t="s">
+    <row r="43" ht="15" spans="1:2">
+      <c r="A43" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="7" t="s">
+    <row r="44" ht="15" spans="1:2">
+      <c r="A44" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="7" t="s">
+    <row r="45" ht="15" spans="1:2">
+      <c r="A45" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="7" t="s">
+    <row r="46" ht="15" spans="1:2">
+      <c r="A46" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="47" ht="24" spans="1:2">
-      <c r="A47" s="7" t="s">
+    <row r="47" ht="29" spans="1:2">
+      <c r="A47" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="48" ht="24" spans="1:2">
-      <c r="A48" s="7" t="s">
+    <row r="48" ht="29" spans="1:2">
+      <c r="A48" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="7" t="s">
+    <row r="49" ht="15" spans="1:2">
+      <c r="A49" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="7" t="s">
+    <row r="50" ht="15" spans="1:2">
+      <c r="A50" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="7" t="s">
+    <row r="51" ht="15" spans="1:2">
+      <c r="A51" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="9" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="7" t="s">
+    <row r="52" ht="15" spans="1:2">
+      <c r="A52" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="13" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="7" t="s">
+    <row r="53" ht="15" spans="1:2">
+      <c r="A53" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="13" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="7" t="s">
+    <row r="54" ht="15" spans="1:2">
+      <c r="A54" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="7" t="s">
+    <row r="55" ht="15" spans="1:2">
+      <c r="A55" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="13" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="7" t="s">
+    <row r="56" ht="15" spans="1:2">
+      <c r="A56" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="13" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="7" t="s">
+    <row r="57" ht="15" spans="1:2">
+      <c r="A57" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="7" t="s">
+    <row r="58" ht="15" spans="1:2">
+      <c r="A58" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="7" t="s">
+    <row r="59" ht="15" spans="1:2">
+      <c r="A59" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="7" t="s">
+    <row r="60" ht="15" spans="1:2">
+      <c r="A60" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="7" t="s">
+    <row r="61" ht="15" spans="1:2">
+      <c r="A61" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="7" t="s">
+    <row r="62" ht="15" spans="1:2">
+      <c r="A62" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="7" t="s">
+    <row r="63" ht="15" spans="1:2">
+      <c r="A63" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="7" t="s">
+    <row r="64" ht="15" spans="1:2">
+      <c r="A64" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="7" t="s">
+    <row r="65" ht="15" spans="1:2">
+      <c r="A65" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="7" t="s">
+    <row r="66" ht="15" spans="1:2">
+      <c r="A66" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="7" t="s">
+    <row r="67" ht="15" spans="1:2">
+      <c r="A67" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="7" t="s">
+    <row r="68" ht="15" spans="1:2">
+      <c r="A68" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="7" t="s">
+    <row r="69" ht="15" spans="1:2">
+      <c r="A69" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="7" t="s">
+    <row r="70" ht="15" spans="1:2">
+      <c r="A70" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="7" t="s">
+    <row r="71" ht="15" spans="1:2">
+      <c r="A71" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="7" t="s">
+    <row r="72" ht="15" spans="1:2">
+      <c r="A72" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="7" t="s">
+    <row r="73" ht="15" spans="1:2">
+      <c r="A73" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="7" t="s">
+    <row r="74" ht="15" spans="1:2">
+      <c r="A74" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="7" t="s">
+    <row r="75" ht="15" spans="1:2">
+      <c r="A75" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="76" ht="24" spans="1:2">
-      <c r="A76" s="7" t="s">
+    <row r="76" ht="29" spans="1:2">
+      <c r="A76" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="77" ht="24" spans="1:2">
-      <c r="A77" s="7" t="s">
+    <row r="77" ht="29" spans="1:2">
+      <c r="A77" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="78" ht="24" spans="1:2">
-      <c r="A78" s="7" t="s">
+    <row r="78" ht="29" spans="1:2">
+      <c r="A78" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="7" t="s">
+    <row r="79" ht="15" spans="1:2">
+      <c r="A79" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="7" t="s">
+    <row r="80" ht="15" spans="1:2">
+      <c r="A80" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="81" ht="36" spans="1:2">
-      <c r="A81" s="7" t="s">
+    <row r="81" ht="44" spans="1:2">
+      <c r="A81" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="82" ht="24" spans="1:2">
-      <c r="A82" s="7" t="s">
+    <row r="82" ht="29" spans="1:2">
+      <c r="A82" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="7" t="s">
+    <row r="83" ht="15" spans="1:2">
+      <c r="A83" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="7" t="s">
+    <row r="84" ht="15" spans="1:2">
+      <c r="A84" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="6" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="7" t="s">
+    <row r="85" ht="15" spans="1:2">
+      <c r="A85" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="7" t="s">
+    <row r="86" ht="15" spans="1:2">
+      <c r="A86" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="7" t="s">
+    <row r="87" ht="15" spans="1:2">
+      <c r="A87" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="7" t="s">
+    <row r="88" ht="15" spans="1:2">
+      <c r="A88" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="7" t="s">
+    <row r="89" ht="15" spans="1:2">
+      <c r="A89" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="6" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="7" t="s">
+    <row r="90" ht="15" spans="1:2">
+      <c r="A90" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="7" t="s">
+    <row r="91" ht="15" spans="1:2">
+      <c r="A91" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="7" t="s">
+    <row r="92" ht="15" spans="1:2">
+      <c r="A92" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="7" t="s">
+    <row r="93" ht="15" spans="1:2">
+      <c r="A93" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="7" t="s">
+    <row r="94" ht="15" spans="1:2">
+      <c r="A94" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="7" t="s">
+    <row r="95" ht="15" spans="1:2">
+      <c r="A95" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="7" t="s">
+    <row r="96" ht="15" spans="1:2">
+      <c r="A96" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="6" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="7" t="s">
+    <row r="97" ht="15" spans="1:2">
+      <c r="A97" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="7" t="s">
+    <row r="98" ht="15" spans="1:2">
+      <c r="A98" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="7" t="s">
+    <row r="99" ht="15" spans="1:2">
+      <c r="A99" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="7" t="s">
+    <row r="100" ht="15" spans="1:2">
+      <c r="A100" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="7" t="s">
+    <row r="101" ht="15" spans="1:2">
+      <c r="A101" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="6" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="7" t="s">
+    <row r="102" ht="15" spans="1:2">
+      <c r="A102" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="103" ht="24" spans="1:2">
-      <c r="A103" s="7" t="s">
+    <row r="103" ht="29" spans="1:2">
+      <c r="A103" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="6" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="104" ht="48" spans="1:2">
-      <c r="A104" s="7" t="s">
+    <row r="104" ht="58" spans="1:2">
+      <c r="A104" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="7" t="s">
+    <row r="105" ht="15" spans="1:2">
+      <c r="A105" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="7" t="s">
+    <row r="106" ht="15" spans="1:2">
+      <c r="A106" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="7" t="s">
+    <row r="107" ht="15" spans="1:2">
+      <c r="A107" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="7" t="s">
+    <row r="108" ht="15" spans="1:2">
+      <c r="A108" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="6" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="109" ht="36" spans="1:2">
-      <c r="A109" s="7" t="s">
+    <row r="109" ht="58" spans="1:2">
+      <c r="A109" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="7" t="s">
+    <row r="110" ht="15" spans="1:2">
+      <c r="A110" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="6" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="111" ht="24" spans="1:2">
-      <c r="A111" s="7" t="s">
+    <row r="111" ht="29" spans="1:2">
+      <c r="A111" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="6" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="112" ht="24" spans="1:2">
-      <c r="A112" s="7" t="s">
+    <row r="112" ht="29" spans="1:2">
+      <c r="A112" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="6" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="113" ht="24" spans="1:2">
-      <c r="A113" s="7" t="s">
+    <row r="113" ht="29" spans="1:2">
+      <c r="A113" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="7" t="s">
+    <row r="114" ht="15" spans="1:2">
+      <c r="A114" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="7" t="s">
+    <row r="115" ht="15" spans="1:2">
+      <c r="A115" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="6" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="116" ht="36" spans="1:2">
-      <c r="A116" s="7" t="s">
+    <row r="116" ht="44" spans="1:2">
+      <c r="A116" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="117" ht="60" spans="1:2">
-      <c r="A117" s="7" t="s">
+    <row r="117" ht="72" spans="1:2">
+      <c r="A117" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="7" t="s">
+    <row r="118" ht="15" spans="1:2">
+      <c r="A118" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="6" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="7" t="s">
+    <row r="119" ht="15" spans="1:2">
+      <c r="A119" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="7" t="s">
+    <row r="120" ht="15" spans="1:2">
+      <c r="A120" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="121" ht="24" spans="1:2">
-      <c r="A121" s="7" t="s">
+    <row r="121" ht="29" spans="1:2">
+      <c r="A121" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="6" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="122" ht="24" spans="1:2">
-      <c r="A122" s="7" t="s">
+    <row r="122" ht="29" spans="1:2">
+      <c r="A122" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="6" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="123" ht="24" spans="1:2">
-      <c r="A123" s="7" t="s">
+    <row r="123" ht="29" spans="1:2">
+      <c r="A123" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="124" ht="36" spans="1:2">
-      <c r="A124" s="7" t="s">
+    <row r="124" ht="58" spans="1:2">
+      <c r="A124" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="6" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="7" t="s">
+    <row r="125" ht="15" spans="1:2">
+      <c r="A125" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="7" t="s">
+    <row r="126" ht="15" spans="1:2">
+      <c r="A126" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="7" t="s">
+    <row r="127" ht="15" spans="1:2">
+      <c r="A127" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="6" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="7" t="s">
+    <row r="128" ht="15" spans="1:2">
+      <c r="A128" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="6" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="7" t="s">
+    <row r="129" ht="15" spans="1:2">
+      <c r="A129" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="6" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="7" t="s">
+    <row r="130" ht="15" spans="1:2">
+      <c r="A130" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="6" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="7" t="s">
+    <row r="131" ht="15" spans="1:2">
+      <c r="A131" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="7" t="s">
+    <row r="132" ht="15" spans="1:2">
+      <c r="A132" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="7" t="s">
+    <row r="133" ht="15" spans="1:2">
+      <c r="A133" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="6" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="7" t="s">
+    <row r="134" ht="15" spans="1:2">
+      <c r="A134" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="7" t="s">
+    <row r="135" ht="15" spans="1:2">
+      <c r="A135" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="6" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="7" t="s">
+    <row r="136" ht="15" spans="1:2">
+      <c r="A136" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="7" t="s">
+    <row r="137" ht="15" spans="1:2">
+      <c r="A137" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="6" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="7" t="s">
+    <row r="138" ht="15" spans="1:2">
+      <c r="A138" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="6" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="7" t="s">
+    <row r="139" ht="15" spans="1:2">
+      <c r="A139" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="6" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="7" t="s">
+    <row r="140" ht="15" spans="1:2">
+      <c r="A140" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="6" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="7" t="s">
+    <row r="141" ht="15" spans="1:2">
+      <c r="A141" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="6" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="7" t="s">
+    <row r="142" ht="15" spans="1:2">
+      <c r="A142" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="6" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="143" ht="24" spans="1:2">
-      <c r="A143" s="7" t="s">
+    <row r="143" ht="29" spans="1:2">
+      <c r="A143" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="7" t="s">
+    <row r="144" ht="15" spans="1:2">
+      <c r="A144" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="6" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="145" ht="24" spans="1:2">
-      <c r="A145" s="7" t="s">
+    <row r="145" ht="44" spans="1:2">
+      <c r="A145" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="6" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="7" t="s">
+    <row r="146" ht="15" spans="1:2">
+      <c r="A146" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="6" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="7" t="s">
+    <row r="147" ht="15" spans="1:2">
+      <c r="A147" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="6" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="7" t="s">
+    <row r="148" ht="15" spans="1:2">
+      <c r="A148" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="6" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="7" t="s">
+    <row r="149" ht="15" spans="1:2">
+      <c r="A149" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="6" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="7" t="s">
+    <row r="150" ht="15" spans="1:2">
+      <c r="A150" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="7" t="s">
+    <row r="151" ht="15" spans="1:2">
+      <c r="A151" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="6" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="7" t="s">
+    <row r="152" ht="15" spans="1:2">
+      <c r="A152" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="6" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="153" ht="24" spans="1:2">
-      <c r="A153" s="7" t="s">
+    <row r="153" ht="29" spans="1:2">
+      <c r="A153" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="6" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="7" t="s">
+    <row r="154" ht="15" spans="1:2">
+      <c r="A154" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="6" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="7" t="s">
+    <row r="155" ht="15" spans="1:2">
+      <c r="A155" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="6" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="7" t="s">
+    <row r="156" ht="15" spans="1:2">
+      <c r="A156" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="6" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="7" t="s">
+    <row r="157" ht="15" spans="1:2">
+      <c r="A157" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="6" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="7" t="s">
+    <row r="158" ht="15" spans="1:2">
+      <c r="A158" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="6" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="7" t="s">
+    <row r="159" ht="15" spans="1:2">
+      <c r="A159" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B159" s="6" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="7" t="s">
+    <row r="160" ht="15" spans="1:2">
+      <c r="A160" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="6" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="7" t="s">
+    <row r="161" ht="15" spans="1:2">
+      <c r="A161" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="6" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="7" t="s">
+    <row r="162" ht="15" spans="1:2">
+      <c r="A162" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="6" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="7" t="s">
+    <row r="163" ht="15" spans="1:2">
+      <c r="A163" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="6" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="7" t="s">
+    <row r="164" ht="15" spans="1:2">
+      <c r="A164" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="6" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="7" t="s">
+    <row r="165" ht="15" spans="1:2">
+      <c r="A165" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="6" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="7" t="s">
+    <row r="166" ht="15" spans="1:2">
+      <c r="A166" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="6" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="7" t="s">
+    <row r="167" ht="15" spans="1:2">
+      <c r="A167" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B167" s="6" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="7" t="s">
+    <row r="168" ht="15" spans="1:2">
+      <c r="A168" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="6" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="7" t="s">
+    <row r="169" ht="15" spans="1:2">
+      <c r="A169" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="6" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="7" t="s">
+    <row r="170" ht="15" spans="1:2">
+      <c r="A170" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="7" t="s">
+    <row r="171" ht="15" spans="1:2">
+      <c r="A171" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="6" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="7" t="s">
+    <row r="172" ht="15" spans="1:2">
+      <c r="A172" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="6" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="7" t="s">
+    <row r="173" ht="15" spans="1:2">
+      <c r="A173" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="6" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="7" t="s">
+    <row r="174" ht="15" spans="1:2">
+      <c r="A174" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="6" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="7" t="s">
+    <row r="175" ht="15" spans="1:2">
+      <c r="A175" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="6" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="7" t="s">
+    <row r="176" ht="15" spans="1:2">
+      <c r="A176" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="6" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="7" t="s">
+    <row r="177" ht="15" spans="1:2">
+      <c r="A177" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="6" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="7" t="s">
+    <row r="178" ht="15" spans="1:2">
+      <c r="A178" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="6" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="7" t="s">
+    <row r="179" ht="15" spans="1:2">
+      <c r="A179" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="6" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="7" t="s">
+    <row r="180" ht="15" spans="1:2">
+      <c r="A180" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="6" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="7" t="s">
+    <row r="181" ht="15" spans="1:2">
+      <c r="A181" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="6" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="7" t="s">
+    <row r="182" ht="15" spans="1:2">
+      <c r="A182" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="6" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="7" t="s">
+    <row r="183" ht="15" spans="1:2">
+      <c r="A183" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="6" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="7" t="s">
+    <row r="184" ht="15" spans="1:2">
+      <c r="A184" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="6" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="7" t="s">
+    <row r="185" ht="15" spans="1:2">
+      <c r="A185" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="6" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="7" t="s">
+    <row r="186" ht="15" spans="1:2">
+      <c r="A186" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="6" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="7" t="s">
+    <row r="187" ht="15" spans="1:2">
+      <c r="A187" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="6" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="7" t="s">
+    <row r="188" ht="15" spans="1:2">
+      <c r="A188" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B188" s="6" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="7" t="s">
+    <row r="189" ht="15" spans="1:2">
+      <c r="A189" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="6" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="7" t="s">
+    <row r="190" ht="15" spans="1:2">
+      <c r="A190" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="6" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="7" t="s">
+    <row r="191" ht="15" spans="1:2">
+      <c r="A191" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B191" s="8" t="s">
+      <c r="B191" s="6" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="7" t="s">
+    <row r="192" ht="15" spans="1:2">
+      <c r="A192" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="6" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="7" t="s">
+    <row r="193" ht="15" spans="1:2">
+      <c r="A193" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="6" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="7" t="s">
+    <row r="194" ht="15" spans="1:2">
+      <c r="A194" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="B194" s="8" t="s">
+      <c r="B194" s="6" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="195" ht="36" spans="1:2">
-      <c r="A195" s="7" t="s">
+    <row r="195" ht="44" spans="1:2">
+      <c r="A195" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="6" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="196" ht="24" spans="1:2">
-      <c r="A196" s="7" t="s">
+    <row r="196" ht="29" spans="1:2">
+      <c r="A196" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="6" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="7" t="s">
+    <row r="197" ht="15" spans="1:2">
+      <c r="A197" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="6" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="7" t="s">
+    <row r="198" ht="15" spans="1:2">
+      <c r="A198" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="6" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="7" t="s">
+    <row r="199" ht="15" spans="1:2">
+      <c r="A199" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="6" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="7" t="s">
+    <row r="200" ht="15" spans="1:2">
+      <c r="A200" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B200" s="8" t="s">
+      <c r="B200" s="6" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="7" t="s">
+    <row r="201" ht="15" spans="1:2">
+      <c r="A201" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="6" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="7" t="s">
+    <row r="202" ht="15" spans="1:2">
+      <c r="A202" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="6" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="7" t="s">
+    <row r="203" ht="15" spans="1:2">
+      <c r="A203" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="B203" s="6" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="7" t="s">
+    <row r="204" ht="15" spans="1:2">
+      <c r="A204" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="6" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="7" t="s">
+    <row r="205" ht="15" spans="1:2">
+      <c r="A205" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="B205" s="8" t="s">
+      <c r="B205" s="6" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="206" ht="24" spans="1:2">
-      <c r="A206" s="7" t="s">
+    <row r="206" ht="29" spans="1:2">
+      <c r="A206" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="B206" s="8" t="s">
+      <c r="B206" s="6" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="7" t="s">
+    <row r="207" ht="15" spans="1:2">
+      <c r="A207" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="B207" s="6" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="7" t="s">
+    <row r="208" ht="15" spans="1:2">
+      <c r="A208" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="B208" s="8" t="s">
+      <c r="B208" s="6" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="7" t="s">
+    <row r="209" ht="15" spans="1:2">
+      <c r="A209" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="6" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="7" t="s">
+    <row r="210" ht="15" spans="1:2">
+      <c r="A210" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="6" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="7" t="s">
+    <row r="211" ht="15" spans="1:2">
+      <c r="A211" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="B211" s="8" t="s">
+      <c r="B211" s="6" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="7" t="s">
+    <row r="212" ht="15" spans="1:2">
+      <c r="A212" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="B212" s="8" t="s">
+      <c r="B212" s="6" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="7" t="s">
+    <row r="213" ht="15" spans="1:2">
+      <c r="A213" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="B213" s="8" t="s">
+      <c r="B213" s="6" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="7" t="s">
+    <row r="214" ht="15" spans="1:2">
+      <c r="A214" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="B214" s="8" t="s">
+      <c r="B214" s="6" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="7" t="s">
+    <row r="215" ht="15" spans="1:2">
+      <c r="A215" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="B215" s="8" t="s">
+      <c r="B215" s="6" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="7" t="s">
+    <row r="216" ht="15" spans="1:2">
+      <c r="A216" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="B216" s="8" t="s">
+      <c r="B216" s="6" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="7" t="s">
+    <row r="217" ht="15" spans="1:2">
+      <c r="A217" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="B217" s="8" t="s">
+      <c r="B217" s="6" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="7" t="s">
+    <row r="218" ht="15" spans="1:2">
+      <c r="A218" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="B218" s="8" t="s">
+      <c r="B218" s="6" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="7" t="s">
+    <row r="219" ht="15" spans="1:2">
+      <c r="A219" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="B219" s="8" t="s">
+      <c r="B219" s="6" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="7" t="s">
+    <row r="220" ht="15" spans="1:2">
+      <c r="A220" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="B220" s="8" t="s">
+      <c r="B220" s="6" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="7" t="s">
+    <row r="221" ht="15" spans="1:2">
+      <c r="A221" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="B221" s="8" t="s">
+      <c r="B221" s="6" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="7" t="s">
+    <row r="222" ht="15" spans="1:2">
+      <c r="A222" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="B222" s="8" t="s">
+      <c r="B222" s="6" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="7" t="s">
+    <row r="223" ht="15" spans="1:2">
+      <c r="A223" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="B223" s="8" t="s">
+      <c r="B223" s="6" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="7" t="s">
+    <row r="224" ht="15" spans="1:2">
+      <c r="A224" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="B224" s="8" t="s">
+      <c r="B224" s="6" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="7" t="s">
+    <row r="225" ht="15" spans="1:2">
+      <c r="A225" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="B225" s="8" t="s">
+      <c r="B225" s="6" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="7" t="s">
+    <row r="226" ht="15" spans="1:2">
+      <c r="A226" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B226" s="8" t="s">
+      <c r="B226" s="6" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="7" t="s">
+    <row r="227" ht="15" spans="1:2">
+      <c r="A227" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="B227" s="8" t="s">
+      <c r="B227" s="6" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="7" t="s">
+    <row r="228" ht="29" spans="1:2">
+      <c r="A228" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="B228" s="7" t="s">
+      <c r="B228" s="5" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="7" t="s">
+    <row r="229" ht="15" spans="1:2">
+      <c r="A229" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="B229" s="7" t="s">
+      <c r="B229" s="5" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="230" ht="24" spans="1:2">
-      <c r="A230" s="7" t="s">
+    <row r="230" ht="29" spans="1:2">
+      <c r="A230" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="B230" s="5" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="7" t="s">
+    <row r="231" ht="15" spans="1:2">
+      <c r="A231" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="B231" s="7" t="s">
+      <c r="B231" s="5" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="7" t="s">
+    <row r="232" ht="15" spans="1:2">
+      <c r="A232" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="B232" s="8" t="s">
+      <c r="B232" s="6" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="7" t="s">
+    <row r="233" ht="15" spans="1:2">
+      <c r="A233" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="B233" s="8" t="s">
+      <c r="B233" s="6" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="7" t="s">
+    <row r="234" ht="15" spans="1:2">
+      <c r="A234" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="B234" s="8" t="s">
+      <c r="B234" s="6" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="7" t="s">
+    <row r="235" ht="15" spans="1:2">
+      <c r="A235" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="B235" s="8" t="s">
+      <c r="B235" s="6" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="7" t="s">
+    <row r="236" ht="15" spans="1:2">
+      <c r="A236" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="B236" s="8" t="s">
+      <c r="B236" s="6" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="7" t="s">
+    <row r="237" ht="15" spans="1:2">
+      <c r="A237" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="B237" s="8" t="s">
+      <c r="B237" s="6" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="7" t="s">
+    <row r="238" ht="15" spans="1:2">
+      <c r="A238" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="B238" s="8" t="s">
+      <c r="B238" s="6" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="7" t="s">
+    <row r="239" ht="15" spans="1:2">
+      <c r="A239" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="B239" s="8" t="s">
+      <c r="B239" s="6" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="7" t="s">
+    <row r="240" ht="15" spans="1:2">
+      <c r="A240" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="B240" s="8" t="s">
+      <c r="B240" s="6" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="7" t="s">
+    <row r="241" ht="15" spans="1:2">
+      <c r="A241" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="B241" s="8" t="s">
+      <c r="B241" s="6" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="7" t="s">
+    <row r="242" ht="15" spans="1:2">
+      <c r="A242" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="B242" s="8" t="s">
+      <c r="B242" s="6" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="7" t="s">
+    <row r="243" ht="15" spans="1:2">
+      <c r="A243" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="B243" s="8" t="s">
+      <c r="B243" s="6" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="7" t="s">
+    <row r="244" ht="15" spans="1:2">
+      <c r="A244" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="B244" s="8" t="s">
+      <c r="B244" s="6" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="7" t="s">
+    <row r="245" ht="15" spans="1:2">
+      <c r="A245" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="B245" s="8" t="s">
+      <c r="B245" s="6" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="7" t="s">
+    <row r="246" ht="15" spans="1:2">
+      <c r="A246" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="B246" s="8" t="s">
+      <c r="B246" s="6" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="7" t="s">
+    <row r="247" ht="15" spans="1:2">
+      <c r="A247" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="B247" s="8" t="s">
+      <c r="B247" s="6" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="7" t="s">
+    <row r="248" ht="15" spans="1:2">
+      <c r="A248" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="B248" s="8" t="s">
+      <c r="B248" s="6" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="7" t="s">
+    <row r="249" ht="15" spans="1:2">
+      <c r="A249" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="B249" s="8" t="s">
+      <c r="B249" s="6" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="7" t="s">
+    <row r="250" ht="15" spans="1:2">
+      <c r="A250" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="B250" s="8" t="s">
+      <c r="B250" s="6" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="7" t="s">
+    <row r="251" ht="15" spans="1:2">
+      <c r="A251" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="B251" s="8" t="s">
+      <c r="B251" s="6" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="7" t="s">
+    <row r="252" ht="15" spans="1:2">
+      <c r="A252" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="B252" s="8" t="s">
+      <c r="B252" s="6" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="7" t="s">
+    <row r="253" ht="15" spans="1:2">
+      <c r="A253" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B253" s="8" t="s">
+      <c r="B253" s="6" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="7" t="s">
+    <row r="254" ht="15" spans="1:2">
+      <c r="A254" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="B254" s="8" t="s">
+      <c r="B254" s="6" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="7" t="s">
+    <row r="255" ht="15" spans="1:2">
+      <c r="A255" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="B255" s="8" t="s">
+      <c r="B255" s="6" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="7" t="s">
+    <row r="256" ht="15" spans="1:2">
+      <c r="A256" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="B256" s="8" t="s">
+      <c r="B256" s="6" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="7" t="s">
+    <row r="257" ht="15" spans="1:2">
+      <c r="A257" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="B257" s="8" t="s">
+      <c r="B257" s="6" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="7" t="s">
+    <row r="258" ht="15" spans="1:2">
+      <c r="A258" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="B258" s="8" t="s">
+      <c r="B258" s="6" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="7" t="s">
+    <row r="259" ht="15" spans="1:2">
+      <c r="A259" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B259" s="8" t="s">
+      <c r="B259" s="6" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="7" t="s">
+    <row r="260" ht="15" spans="1:2">
+      <c r="A260" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="B260" s="8" t="s">
+      <c r="B260" s="6" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="7" t="s">
+    <row r="261" ht="15" spans="1:2">
+      <c r="A261" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="B261" s="8" t="s">
+      <c r="B261" s="6" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="7" t="s">
+    <row r="262" ht="15" spans="1:2">
+      <c r="A262" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="B262" s="8" t="s">
+      <c r="B262" s="6" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="7" t="s">
+    <row r="263" ht="15" spans="1:2">
+      <c r="A263" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B263" s="8" t="s">
+      <c r="B263" s="6" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="7" t="s">
+    <row r="264" ht="15" spans="1:2">
+      <c r="A264" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="B264" s="8" t="s">
+      <c r="B264" s="6" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="7" t="s">
+    <row r="265" ht="15" spans="1:2">
+      <c r="A265" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="B265" s="8" t="s">
+      <c r="B265" s="6" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="7" t="s">
+    <row r="266" ht="15" spans="1:2">
+      <c r="A266" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B266" s="8" t="s">
+      <c r="B266" s="6" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="7" t="s">
+    <row r="267" ht="15" spans="1:2">
+      <c r="A267" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="B267" s="8" t="s">
+      <c r="B267" s="6" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="7" t="s">
+    <row r="268" ht="15" spans="1:2">
+      <c r="A268" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="B268" s="8" t="s">
+      <c r="B268" s="6" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="7" t="s">
+    <row r="269" ht="15" spans="1:2">
+      <c r="A269" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B269" s="8" t="s">
+      <c r="B269" s="6" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="7" t="s">
+    <row r="270" ht="15" spans="1:2">
+      <c r="A270" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="B270" s="8" t="s">
+      <c r="B270" s="6" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
-      <c r="A271" s="7" t="s">
+    <row r="271" ht="15" spans="1:2">
+      <c r="A271" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="B271" s="8" t="s">
+      <c r="B271" s="6" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
-      <c r="A272" s="7" t="s">
+    <row r="272" ht="15" spans="1:2">
+      <c r="A272" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="B272" s="8" t="s">
+      <c r="B272" s="6" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="7" t="s">
+    <row r="273" ht="15" spans="1:2">
+      <c r="A273" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="B273" s="8" t="s">
+      <c r="B273" s="6" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="7" t="s">
+    <row r="274" ht="15" spans="1:2">
+      <c r="A274" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="B274" s="8" t="s">
+      <c r="B274" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="7" t="s">
+    <row r="275" ht="15" spans="1:2">
+      <c r="A275" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="B275" s="8" t="s">
+      <c r="B275" s="6" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="7" t="s">
+    <row r="276" ht="15" spans="1:2">
+      <c r="A276" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="B276" s="8" t="s">
+      <c r="B276" s="6" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="7" t="s">
+    <row r="277" ht="15" spans="1:2">
+      <c r="A277" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="B277" s="8" t="s">
+      <c r="B277" s="6" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="7" t="s">
+    <row r="278" ht="15" spans="1:2">
+      <c r="A278" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="B278" s="8" t="s">
+      <c r="B278" s="6" t="s">
         <v>650</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>

--- a/public/templates/MCD表批导模板V4.0.xlsx
+++ b/public/templates/MCD表批导模板V4.0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="16180" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="13176" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="拆分部件" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="O1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="652">
   <si>
     <t>拆分部件-批导模板
 ——标注黄色的为必填项</t>
@@ -133,6 +133,9 @@
     <t>均质材料名称</t>
   </si>
   <si>
+    <t>均质材料分类名称</t>
+  </si>
+  <si>
     <t>测试机构</t>
   </si>
   <si>
@@ -150,9 +153,6 @@
   <si>
     <t>材料成分表-批导模板
 ——标注黄色的为必填项</t>
-  </si>
-  <si>
-    <t>报告日期(yyyy-MM-dd)</t>
   </si>
   <si>
     <t>均质材料成分代码</t>
@@ -658,7 +658,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2-(2'-</t>
     </r>
@@ -676,7 +676,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-3',5'-</t>
     </r>
@@ -694,7 +694,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">)- </t>
     </r>
@@ -2131,18 +2131,16 @@
   <si>
     <t xml:space="preserve">六溴环十二烷 (HBCDD) </t>
   </si>
+  <si>
+    <t>均质材料分类代码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2173,13 +2171,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -2190,151 +2188,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2343,7 +2214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2365,188 +2236,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2569,253 +2260,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2883,70 +2332,20 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3237,37 +2636,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.75" style="22" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="22" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="13" style="22" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="22" customWidth="1"/>
-    <col min="7" max="7" width="11" style="22" customWidth="1"/>
-    <col min="8" max="8" width="20.25" style="22" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="22" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="28.77734375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="19" style="22" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="22" customWidth="1"/>
+    <col min="7" max="7" width="13" style="22" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="11" style="22" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" style="22" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="22" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" ht="43.5" customHeight="1" spans="1:9">
+    <row r="1" spans="1:11" s="21" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="24" t="s">
@@ -3277,64 +2678,67 @@
         <v>3</v>
       </c>
       <c r="E1" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="27" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:S1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="22" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="9" style="22"/>
-    <col min="6" max="6" width="9.125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="20.625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="22" customWidth="1"/>
-    <col min="9" max="9" width="9" style="22"/>
-    <col min="10" max="11" width="16.5" style="22" customWidth="1"/>
-    <col min="12" max="12" width="13.75" style="22" customWidth="1"/>
-    <col min="13" max="13" width="9" style="22"/>
-    <col min="14" max="14" width="13" style="22" customWidth="1"/>
-    <col min="15" max="15" width="12.875" style="22" customWidth="1"/>
-    <col min="16" max="16" width="14" style="22" customWidth="1"/>
-    <col min="17" max="17" width="20.75" style="22" customWidth="1"/>
-    <col min="18" max="18" width="14.75" style="22" customWidth="1"/>
-    <col min="19" max="19" width="9.125" style="22" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="22"/>
+    <col min="2" max="2" width="12.88671875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="9" style="22"/>
+    <col min="7" max="8" width="16.44140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" style="22" customWidth="1"/>
+    <col min="10" max="10" width="9" style="22"/>
+    <col min="11" max="11" width="13" style="22" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" style="22" customWidth="1"/>
+    <col min="13" max="13" width="14" style="22" customWidth="1"/>
+    <col min="14" max="14" width="20.77734375" style="22" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" style="22" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="22" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" ht="43.5" customHeight="1" spans="1:19">
+    <row r="1" spans="1:16" s="21" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>2</v>
@@ -3343,105 +2747,110 @@
         <v>3</v>
       </c>
       <c r="D1" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>15</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P1" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="27" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J994">
-      <formula1>备注!$A$2:$A$278</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L33">
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I33">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1000">
-      <formula1>备注!$C$2:$C$26</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S76">
-      <formula1>备注!$F$2:$F$25</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>备注!$F$2:$F$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>P2:P76</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>备注!$C$2:$C$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K1000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>备注!$A$2:$A$278</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G994</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:Q1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.25" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="22" customWidth="1"/>
-    <col min="4" max="6" width="11.375" style="22" customWidth="1"/>
-    <col min="7" max="7" width="21.375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="9" style="22"/>
+    <col min="7" max="7" width="9.77734375" style="22" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="22" customWidth="1"/>
     <col min="9" max="9" width="9" style="22"/>
-    <col min="10" max="10" width="9.75" style="22" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="22" customWidth="1"/>
-    <col min="12" max="12" width="9" style="22"/>
-    <col min="13" max="13" width="13" style="22" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="22" customWidth="1"/>
-    <col min="15" max="15" width="13.625" style="22" customWidth="1"/>
-    <col min="16" max="16" width="9" style="22"/>
-    <col min="17" max="17" width="16.8269230769231" style="22" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="22"/>
+    <col min="10" max="10" width="13" style="22" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" style="22" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="9" style="22"/>
+    <col min="14" max="14" width="16.77734375" style="22" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" ht="43.5" customHeight="1" spans="1:17">
+    <row r="1" spans="1:14" s="21" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -3452,87 +2861,91 @@
         <v>3</v>
       </c>
       <c r="D1" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="G1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="J1" s="26" t="s">
         <v>15</v>
       </c>
+      <c r="K1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="N1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="28" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1000">
-      <formula1>备注!$A$2:$A$278</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1000">
-      <formula1>备注!$C$2:$C$26</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1000">
-      <formula1>备注!$E$2:$E$3</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>备注!$C$2:$C$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J1000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>备注!$E$2:$E$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L1000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>备注!$A$2:$A$278</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G1000</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F278"/>
   <sheetViews>
     <sheetView topLeftCell="A251" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3552,7 +2965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
@@ -3572,7 +2985,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -3592,7 +3005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
@@ -3609,7 +3022,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
@@ -3626,7 +3039,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -3643,7 +3056,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
@@ -3660,7 +3073,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>61</v>
       </c>
@@ -3677,7 +3090,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:6">
+    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>66</v>
       </c>
@@ -3694,7 +3107,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" ht="29" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -3711,7 +3124,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:6">
+    <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>76</v>
       </c>
@@ -3728,7 +3141,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:6">
+    <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -3745,7 +3158,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" ht="29" spans="1:6">
+    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>86</v>
       </c>
@@ -3762,7 +3175,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" ht="44" spans="1:6">
+    <row r="14" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>91</v>
       </c>
@@ -3779,7 +3192,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:6">
+    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>96</v>
       </c>
@@ -3796,7 +3209,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:6">
+    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>101</v>
       </c>
@@ -3813,7 +3226,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" ht="44" spans="1:6">
+    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>106</v>
       </c>
@@ -3830,7 +3243,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:6">
+    <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>111</v>
       </c>
@@ -3847,7 +3260,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="1:6">
+    <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>116</v>
       </c>
@@ -3864,7 +3277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="1:6">
+    <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>120</v>
       </c>
@@ -3881,7 +3294,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" ht="29" spans="1:6">
+    <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>124</v>
       </c>
@@ -3898,7 +3311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:6">
+    <row r="22" spans="1:6" ht="13.2" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>128</v>
       </c>
@@ -3915,7 +3328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" ht="29" spans="1:6">
+    <row r="23" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>132</v>
       </c>
@@ -3932,7 +3345,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" ht="29" spans="1:6">
+    <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>136</v>
       </c>
@@ -3949,7 +3362,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:6">
+    <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>141</v>
       </c>
@@ -3966,7 +3379,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>146</v>
       </c>
@@ -3980,7 +3393,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>150</v>
       </c>
@@ -3988,7 +3401,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>152</v>
       </c>
@@ -3996,7 +3409,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="1:2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>154</v>
       </c>
@@ -4004,7 +3417,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>156</v>
       </c>
@@ -4012,7 +3425,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>158</v>
       </c>
@@ -4020,7 +3433,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" ht="29" spans="1:2">
+    <row r="32" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>160</v>
       </c>
@@ -4028,7 +3441,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>162</v>
       </c>
@@ -4036,7 +3449,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>164</v>
       </c>
@@ -4044,7 +3457,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>165</v>
       </c>
@@ -4052,7 +3465,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>167</v>
       </c>
@@ -4060,7 +3473,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>169</v>
       </c>
@@ -4068,7 +3481,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>171</v>
       </c>
@@ -4076,7 +3489,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>173</v>
       </c>
@@ -4084,7 +3497,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" ht="29" spans="1:2">
+    <row r="40" spans="1:2" ht="25.2" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>175</v>
       </c>
@@ -4092,7 +3505,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
         <v>177</v>
       </c>
@@ -4100,7 +3513,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" ht="29" spans="1:2">
+    <row r="42" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>179</v>
       </c>
@@ -4108,7 +3521,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>181</v>
       </c>
@@ -4116,7 +3529,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>183</v>
       </c>
@@ -4124,7 +3537,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>185</v>
       </c>
@@ -4132,7 +3545,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>187</v>
       </c>
@@ -4140,7 +3553,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" ht="29" spans="1:2">
+    <row r="47" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>189</v>
       </c>
@@ -4148,7 +3561,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" ht="29" spans="1:2">
+    <row r="48" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>191</v>
       </c>
@@ -4156,7 +3569,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>193</v>
       </c>
@@ -4164,7 +3577,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>195</v>
       </c>
@@ -4172,7 +3585,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="51" ht="15" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>197</v>
       </c>
@@ -4180,7 +3593,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>187</v>
       </c>
@@ -4188,7 +3601,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>199</v>
       </c>
@@ -4196,7 +3609,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>201</v>
       </c>
@@ -4204,7 +3617,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" ht="15" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>203</v>
       </c>
@@ -4212,7 +3625,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="56" ht="15" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>205</v>
       </c>
@@ -4220,7 +3633,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" ht="15" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>207</v>
       </c>
@@ -4228,7 +3641,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="58" ht="15" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
         <v>209</v>
       </c>
@@ -4236,7 +3649,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="59" ht="15" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>211</v>
       </c>
@@ -4244,7 +3657,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="60" ht="15" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>213</v>
       </c>
@@ -4252,7 +3665,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" ht="15" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>215</v>
       </c>
@@ -4260,7 +3673,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="62" ht="15" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>217</v>
       </c>
@@ -4268,7 +3681,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="63" ht="15" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>219</v>
       </c>
@@ -4276,7 +3689,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="64" ht="15" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>221</v>
       </c>
@@ -4284,7 +3697,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="65" ht="15" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>223</v>
       </c>
@@ -4292,7 +3705,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" ht="15" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
         <v>225</v>
       </c>
@@ -4300,7 +3713,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="67" ht="15" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
         <v>227</v>
       </c>
@@ -4308,7 +3721,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="68" ht="15" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
         <v>229</v>
       </c>
@@ -4316,7 +3729,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" ht="15" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
         <v>231</v>
       </c>
@@ -4324,7 +3737,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="70" ht="15" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
         <v>233</v>
       </c>
@@ -4332,7 +3745,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="71" ht="15" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
         <v>235</v>
       </c>
@@ -4340,7 +3753,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="72" ht="15" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
         <v>237</v>
       </c>
@@ -4348,7 +3761,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="73" ht="15" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
         <v>239</v>
       </c>
@@ -4356,7 +3769,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="74" ht="15" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
         <v>241</v>
       </c>
@@ -4364,7 +3777,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="75" ht="15" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
         <v>243</v>
       </c>
@@ -4372,7 +3785,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="76" ht="29" spans="1:2">
+    <row r="76" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
         <v>245</v>
       </c>
@@ -4380,7 +3793,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="77" ht="29" spans="1:2">
+    <row r="77" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
         <v>247</v>
       </c>
@@ -4388,7 +3801,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="78" ht="29" spans="1:2">
+    <row r="78" spans="1:2" ht="36" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
         <v>249</v>
       </c>
@@ -4396,7 +3809,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="79" ht="15" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
         <v>251</v>
       </c>
@@ -4404,7 +3817,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="80" ht="15" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
         <v>253</v>
       </c>
@@ -4412,7 +3825,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" ht="44" spans="1:2">
+    <row r="81" spans="1:2" ht="36" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
         <v>255</v>
       </c>
@@ -4420,7 +3833,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="82" ht="29" spans="1:2">
+    <row r="82" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
         <v>257</v>
       </c>
@@ -4428,7 +3841,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="83" ht="15" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
         <v>259</v>
       </c>
@@ -4436,7 +3849,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="84" ht="15" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
         <v>261</v>
       </c>
@@ -4444,7 +3857,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="85" ht="15" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
         <v>263</v>
       </c>
@@ -4452,7 +3865,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="86" ht="15" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
         <v>265</v>
       </c>
@@ -4460,7 +3873,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="87" ht="15" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
         <v>267</v>
       </c>
@@ -4468,7 +3881,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="88" ht="15" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="5" t="s">
         <v>269</v>
       </c>
@@ -4476,7 +3889,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" ht="15" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="s">
         <v>271</v>
       </c>
@@ -4484,7 +3897,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="90" ht="15" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="s">
         <v>273</v>
       </c>
@@ -4492,7 +3905,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="91" ht="15" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="5" t="s">
         <v>275</v>
       </c>
@@ -4500,7 +3913,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="92" ht="15" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="5" t="s">
         <v>277</v>
       </c>
@@ -4508,7 +3921,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="93" ht="15" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="5" t="s">
         <v>279</v>
       </c>
@@ -4516,7 +3929,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="94" ht="15" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="5" t="s">
         <v>281</v>
       </c>
@@ -4524,7 +3937,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="95" ht="15" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="5" t="s">
         <v>283</v>
       </c>
@@ -4532,7 +3945,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" ht="15" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="5" t="s">
         <v>285</v>
       </c>
@@ -4540,7 +3953,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="97" ht="15" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="5" t="s">
         <v>287</v>
       </c>
@@ -4548,7 +3961,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="98" ht="15" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="5" t="s">
         <v>289</v>
       </c>
@@ -4556,7 +3969,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" ht="15" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="5" t="s">
         <v>291</v>
       </c>
@@ -4564,7 +3977,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="100" ht="15" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="5" t="s">
         <v>293</v>
       </c>
@@ -4572,7 +3985,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="101" ht="15" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
         <v>295</v>
       </c>
@@ -4580,7 +3993,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="102" ht="15" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
         <v>297</v>
       </c>
@@ -4588,7 +4001,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="103" ht="29" spans="1:2">
+    <row r="103" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
         <v>299</v>
       </c>
@@ -4596,7 +4009,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" ht="58" spans="1:2">
+    <row r="104" spans="1:2" ht="48" x14ac:dyDescent="0.15">
       <c r="A104" s="5" t="s">
         <v>301</v>
       </c>
@@ -4604,7 +4017,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="105" ht="15" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="5" t="s">
         <v>303</v>
       </c>
@@ -4612,7 +4025,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="106" ht="15" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="5" t="s">
         <v>305</v>
       </c>
@@ -4620,7 +4033,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="107" ht="15" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
         <v>307</v>
       </c>
@@ -4628,7 +4041,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="108" ht="15" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
         <v>309</v>
       </c>
@@ -4636,7 +4049,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="109" ht="58" spans="1:2">
+    <row r="109" spans="1:2" ht="48" x14ac:dyDescent="0.15">
       <c r="A109" s="5" t="s">
         <v>311</v>
       </c>
@@ -4644,7 +4057,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="110" ht="15" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="5" t="s">
         <v>313</v>
       </c>
@@ -4652,7 +4065,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="111" ht="29" spans="1:2">
+    <row r="111" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A111" s="5" t="s">
         <v>315</v>
       </c>
@@ -4660,7 +4073,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="112" ht="29" spans="1:2">
+    <row r="112" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A112" s="5" t="s">
         <v>317</v>
       </c>
@@ -4668,7 +4081,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="113" ht="29" spans="1:2">
+    <row r="113" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A113" s="5" t="s">
         <v>319</v>
       </c>
@@ -4676,7 +4089,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="114" ht="15" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="5" t="s">
         <v>321</v>
       </c>
@@ -4684,7 +4097,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="115" ht="15" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="5" t="s">
         <v>323</v>
       </c>
@@ -4692,7 +4105,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="116" ht="44" spans="1:2">
+    <row r="116" spans="1:2" ht="48" x14ac:dyDescent="0.15">
       <c r="A116" s="5" t="s">
         <v>325</v>
       </c>
@@ -4700,7 +4113,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="117" ht="72" spans="1:2">
+    <row r="117" spans="1:2" ht="72" x14ac:dyDescent="0.15">
       <c r="A117" s="5" t="s">
         <v>327</v>
       </c>
@@ -4708,7 +4121,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="118" ht="15" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="5" t="s">
         <v>329</v>
       </c>
@@ -4716,7 +4129,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="119" ht="15" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="5" t="s">
         <v>331</v>
       </c>
@@ -4724,7 +4137,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="120" ht="15" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="5" t="s">
         <v>333</v>
       </c>
@@ -4732,7 +4145,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="121" ht="29" spans="1:2">
+    <row r="121" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A121" s="5" t="s">
         <v>335</v>
       </c>
@@ -4740,7 +4153,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="122" ht="29" spans="1:2">
+    <row r="122" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A122" s="5" t="s">
         <v>337</v>
       </c>
@@ -4748,7 +4161,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="123" ht="29" spans="1:2">
+    <row r="123" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A123" s="5" t="s">
         <v>339</v>
       </c>
@@ -4756,7 +4169,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="124" ht="58" spans="1:2">
+    <row r="124" spans="1:2" ht="48" x14ac:dyDescent="0.15">
       <c r="A124" s="5" t="s">
         <v>341</v>
       </c>
@@ -4764,7 +4177,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="125" ht="15" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="5" t="s">
         <v>343</v>
       </c>
@@ -4772,7 +4185,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="126" ht="15" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="5" t="s">
         <v>345</v>
       </c>
@@ -4780,7 +4193,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="127" ht="15" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="5" t="s">
         <v>347</v>
       </c>
@@ -4788,7 +4201,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="128" ht="15" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="5" t="s">
         <v>349</v>
       </c>
@@ -4796,7 +4209,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="129" ht="15" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="5" t="s">
         <v>351</v>
       </c>
@@ -4804,7 +4217,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="130" ht="15" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="5" t="s">
         <v>353</v>
       </c>
@@ -4812,7 +4225,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="131" ht="15" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="5" t="s">
         <v>355</v>
       </c>
@@ -4820,7 +4233,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="132" ht="15" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="5" t="s">
         <v>357</v>
       </c>
@@ -4828,7 +4241,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="133" ht="15" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="5" t="s">
         <v>359</v>
       </c>
@@ -4836,7 +4249,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="134" ht="15" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="5" t="s">
         <v>361</v>
       </c>
@@ -4844,7 +4257,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="135" ht="15" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="5" t="s">
         <v>363</v>
       </c>
@@ -4852,7 +4265,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="136" ht="15" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="5" t="s">
         <v>365</v>
       </c>
@@ -4860,7 +4273,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="137" ht="15" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="5" t="s">
         <v>367</v>
       </c>
@@ -4868,7 +4281,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="138" ht="15" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="5" t="s">
         <v>369</v>
       </c>
@@ -4876,7 +4289,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="139" ht="15" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="5" t="s">
         <v>371</v>
       </c>
@@ -4884,7 +4297,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="140" ht="15" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="5" t="s">
         <v>373</v>
       </c>
@@ -4892,7 +4305,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="141" ht="15" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="5" t="s">
         <v>375</v>
       </c>
@@ -4900,7 +4313,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="142" ht="15" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="5" t="s">
         <v>377</v>
       </c>
@@ -4908,7 +4321,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="143" ht="29" spans="1:2">
+    <row r="143" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A143" s="5" t="s">
         <v>379</v>
       </c>
@@ -4916,7 +4329,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="144" ht="15" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="5" t="s">
         <v>381</v>
       </c>
@@ -4924,7 +4337,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="145" ht="44" spans="1:2">
+    <row r="145" spans="1:2" ht="36" x14ac:dyDescent="0.15">
       <c r="A145" s="5" t="s">
         <v>383</v>
       </c>
@@ -4932,7 +4345,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="146" ht="15" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="5" t="s">
         <v>385</v>
       </c>
@@ -4940,7 +4353,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="147" ht="15" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="5" t="s">
         <v>387</v>
       </c>
@@ -4948,7 +4361,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="148" ht="15" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="5" t="s">
         <v>389</v>
       </c>
@@ -4956,7 +4369,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="149" ht="15" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="5" t="s">
         <v>391</v>
       </c>
@@ -4964,7 +4377,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="150" ht="15" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="5" t="s">
         <v>393</v>
       </c>
@@ -4972,7 +4385,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="151" ht="15" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="5" t="s">
         <v>395</v>
       </c>
@@ -4980,7 +4393,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="152" ht="15" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="5" t="s">
         <v>397</v>
       </c>
@@ -4988,7 +4401,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="153" ht="29" spans="1:2">
+    <row r="153" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A153" s="5" t="s">
         <v>399</v>
       </c>
@@ -4996,7 +4409,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="154" ht="15" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="5" t="s">
         <v>401</v>
       </c>
@@ -5004,7 +4417,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="155" ht="15" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="5" t="s">
         <v>403</v>
       </c>
@@ -5012,7 +4425,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="156" ht="15" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" s="5" t="s">
         <v>405</v>
       </c>
@@ -5020,7 +4433,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="157" ht="15" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="5" t="s">
         <v>407</v>
       </c>
@@ -5028,7 +4441,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="158" ht="15" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="5" t="s">
         <v>409</v>
       </c>
@@ -5036,7 +4449,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="159" ht="15" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="5" t="s">
         <v>411</v>
       </c>
@@ -5044,7 +4457,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="160" ht="15" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="5" t="s">
         <v>413</v>
       </c>
@@ -5052,7 +4465,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="161" ht="15" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="5" t="s">
         <v>415</v>
       </c>
@@ -5060,7 +4473,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="162" ht="15" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="5" t="s">
         <v>417</v>
       </c>
@@ -5068,7 +4481,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="163" ht="15" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="5" t="s">
         <v>419</v>
       </c>
@@ -5076,7 +4489,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="164" ht="15" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="5" t="s">
         <v>421</v>
       </c>
@@ -5084,7 +4497,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="165" ht="15" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" s="5" t="s">
         <v>423</v>
       </c>
@@ -5092,7 +4505,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="166" ht="15" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" s="5" t="s">
         <v>425</v>
       </c>
@@ -5100,7 +4513,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="167" ht="15" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="5" t="s">
         <v>427</v>
       </c>
@@ -5108,7 +4521,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="168" ht="15" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" s="5" t="s">
         <v>429</v>
       </c>
@@ -5116,7 +4529,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="169" ht="15" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" s="5" t="s">
         <v>431</v>
       </c>
@@ -5124,7 +4537,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="170" ht="15" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="5" t="s">
         <v>433</v>
       </c>
@@ -5132,7 +4545,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="171" ht="15" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="5" t="s">
         <v>435</v>
       </c>
@@ -5140,7 +4553,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="172" ht="15" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" s="5" t="s">
         <v>437</v>
       </c>
@@ -5148,7 +4561,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="173" ht="15" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" s="5" t="s">
         <v>439</v>
       </c>
@@ -5156,7 +4569,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="174" ht="15" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" s="5" t="s">
         <v>441</v>
       </c>
@@ -5164,7 +4577,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="175" ht="15" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" s="5" t="s">
         <v>443</v>
       </c>
@@ -5172,7 +4585,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="176" ht="15" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" s="5" t="s">
         <v>445</v>
       </c>
@@ -5180,7 +4593,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="177" ht="15" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="5" t="s">
         <v>447</v>
       </c>
@@ -5188,7 +4601,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="178" ht="15" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" s="5" t="s">
         <v>449</v>
       </c>
@@ -5196,7 +4609,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="179" ht="15" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" s="5" t="s">
         <v>451</v>
       </c>
@@ -5204,7 +4617,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="180" ht="15" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" s="5" t="s">
         <v>453</v>
       </c>
@@ -5212,7 +4625,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="181" ht="15" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="5" t="s">
         <v>455</v>
       </c>
@@ -5220,7 +4633,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="182" ht="15" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" s="5" t="s">
         <v>457</v>
       </c>
@@ -5228,7 +4641,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="183" ht="15" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" s="5" t="s">
         <v>459</v>
       </c>
@@ -5236,7 +4649,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="184" ht="15" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" s="5" t="s">
         <v>461</v>
       </c>
@@ -5244,7 +4657,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="185" ht="15" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="5" t="s">
         <v>463</v>
       </c>
@@ -5252,7 +4665,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="186" ht="15" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" s="5" t="s">
         <v>465</v>
       </c>
@@ -5260,7 +4673,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="187" ht="15" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" s="5" t="s">
         <v>467</v>
       </c>
@@ -5268,7 +4681,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="188" ht="15" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" s="5" t="s">
         <v>469</v>
       </c>
@@ -5276,7 +4689,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="189" ht="15" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" s="5" t="s">
         <v>471</v>
       </c>
@@ -5284,7 +4697,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="190" ht="15" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" s="5" t="s">
         <v>473</v>
       </c>
@@ -5292,7 +4705,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="191" ht="15" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" s="5" t="s">
         <v>475</v>
       </c>
@@ -5300,7 +4713,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="192" ht="15" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" s="5" t="s">
         <v>477</v>
       </c>
@@ -5308,7 +4721,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="193" ht="15" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" s="5" t="s">
         <v>479</v>
       </c>
@@ -5316,7 +4729,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="194" ht="15" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" s="5" t="s">
         <v>481</v>
       </c>
@@ -5324,7 +4737,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="195" ht="44" spans="1:2">
+    <row r="195" spans="1:2" ht="36" x14ac:dyDescent="0.15">
       <c r="A195" s="5" t="s">
         <v>483</v>
       </c>
@@ -5332,7 +4745,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="196" ht="29" spans="1:2">
+    <row r="196" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A196" s="5" t="s">
         <v>485</v>
       </c>
@@ -5340,7 +4753,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="197" ht="15" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" s="5" t="s">
         <v>487</v>
       </c>
@@ -5348,7 +4761,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="198" ht="15" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" s="5" t="s">
         <v>489</v>
       </c>
@@ -5356,7 +4769,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="199" ht="15" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" s="5" t="s">
         <v>491</v>
       </c>
@@ -5364,7 +4777,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="200" ht="15" spans="1:2">
+    <row r="200" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A200" s="5" t="s">
         <v>493</v>
       </c>
@@ -5372,7 +4785,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="201" ht="15" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" s="5" t="s">
         <v>495</v>
       </c>
@@ -5380,7 +4793,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="202" ht="15" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" s="5" t="s">
         <v>497</v>
       </c>
@@ -5388,7 +4801,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="203" ht="15" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" s="5" t="s">
         <v>499</v>
       </c>
@@ -5396,7 +4809,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="204" ht="15" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" s="5" t="s">
         <v>501</v>
       </c>
@@ -5404,7 +4817,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="205" ht="15" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" s="5" t="s">
         <v>503</v>
       </c>
@@ -5412,7 +4825,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="206" ht="29" spans="1:2">
+    <row r="206" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A206" s="5" t="s">
         <v>505</v>
       </c>
@@ -5420,7 +4833,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="207" ht="15" spans="1:2">
+    <row r="207" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A207" s="5" t="s">
         <v>507</v>
       </c>
@@ -5428,7 +4841,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="208" ht="15" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" s="5" t="s">
         <v>509</v>
       </c>
@@ -5436,7 +4849,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="209" ht="15" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" s="5" t="s">
         <v>511</v>
       </c>
@@ -5444,7 +4857,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="210" ht="15" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" s="5" t="s">
         <v>513</v>
       </c>
@@ -5452,7 +4865,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="211" ht="15" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" s="5" t="s">
         <v>515</v>
       </c>
@@ -5460,7 +4873,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="212" ht="15" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" s="5" t="s">
         <v>517</v>
       </c>
@@ -5468,7 +4881,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="213" ht="15" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" s="5" t="s">
         <v>519</v>
       </c>
@@ -5476,7 +4889,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="214" ht="15" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" s="5" t="s">
         <v>521</v>
       </c>
@@ -5484,7 +4897,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="215" ht="15" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A215" s="5" t="s">
         <v>523</v>
       </c>
@@ -5492,7 +4905,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="216" ht="15" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" s="5" t="s">
         <v>525</v>
       </c>
@@ -5500,7 +4913,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="217" ht="15" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A217" s="5" t="s">
         <v>527</v>
       </c>
@@ -5508,7 +4921,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="218" ht="15" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" s="5" t="s">
         <v>529</v>
       </c>
@@ -5516,7 +4929,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="219" ht="15" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A219" s="5" t="s">
         <v>531</v>
       </c>
@@ -5524,7 +4937,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="220" ht="15" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A220" s="5" t="s">
         <v>533</v>
       </c>
@@ -5532,7 +4945,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="221" ht="15" spans="1:2">
+    <row r="221" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A221" s="5" t="s">
         <v>535</v>
       </c>
@@ -5540,7 +4953,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="222" ht="15" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" s="5" t="s">
         <v>537</v>
       </c>
@@ -5548,7 +4961,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="223" ht="15" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" s="5" t="s">
         <v>539</v>
       </c>
@@ -5556,7 +4969,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="224" ht="15" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A224" s="5" t="s">
         <v>541</v>
       </c>
@@ -5564,7 +4977,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="225" ht="15" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A225" s="5" t="s">
         <v>543</v>
       </c>
@@ -5572,7 +4985,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="226" ht="15" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" s="5" t="s">
         <v>545</v>
       </c>
@@ -5580,7 +4993,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="227" ht="15" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" s="5" t="s">
         <v>547</v>
       </c>
@@ -5588,7 +5001,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="228" ht="29" spans="1:2">
+    <row r="228" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A228" s="5" t="s">
         <v>549</v>
       </c>
@@ -5596,7 +5009,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="229" ht="15" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" s="5" t="s">
         <v>551</v>
       </c>
@@ -5604,7 +5017,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="230" ht="29" spans="1:2">
+    <row r="230" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A230" s="5" t="s">
         <v>553</v>
       </c>
@@ -5612,7 +5025,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="231" ht="15" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" s="5" t="s">
         <v>555</v>
       </c>
@@ -5620,7 +5033,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="232" ht="15" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" s="5" t="s">
         <v>557</v>
       </c>
@@ -5628,7 +5041,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="233" ht="15" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" s="5" t="s">
         <v>559</v>
       </c>
@@ -5636,7 +5049,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="234" ht="15" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A234" s="5" t="s">
         <v>561</v>
       </c>
@@ -5644,7 +5057,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="235" ht="15" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A235" s="5" t="s">
         <v>563</v>
       </c>
@@ -5652,7 +5065,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="236" ht="15" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A236" s="5" t="s">
         <v>565</v>
       </c>
@@ -5660,7 +5073,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="237" ht="15" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A237" s="5" t="s">
         <v>567</v>
       </c>
@@ -5668,7 +5081,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="238" ht="15" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A238" s="5" t="s">
         <v>569</v>
       </c>
@@ -5676,7 +5089,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="239" ht="15" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" s="5" t="s">
         <v>571</v>
       </c>
@@ -5684,7 +5097,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="240" ht="15" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" s="5" t="s">
         <v>573</v>
       </c>
@@ -5692,7 +5105,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="241" ht="15" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" s="5" t="s">
         <v>575</v>
       </c>
@@ -5700,7 +5113,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="242" ht="15" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" s="5" t="s">
         <v>577</v>
       </c>
@@ -5708,7 +5121,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="243" ht="15" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" s="5" t="s">
         <v>579</v>
       </c>
@@ -5716,7 +5129,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="244" ht="15" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A244" s="5" t="s">
         <v>581</v>
       </c>
@@ -5724,7 +5137,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="245" ht="15" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" s="5" t="s">
         <v>583</v>
       </c>
@@ -5732,7 +5145,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="246" ht="15" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" s="5" t="s">
         <v>585</v>
       </c>
@@ -5740,7 +5153,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="247" ht="15" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" s="5" t="s">
         <v>587</v>
       </c>
@@ -5748,7 +5161,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="248" ht="15" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" s="5" t="s">
         <v>589</v>
       </c>
@@ -5756,7 +5169,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="249" ht="15" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" s="5" t="s">
         <v>591</v>
       </c>
@@ -5764,7 +5177,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="250" ht="15" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" s="5" t="s">
         <v>593</v>
       </c>
@@ -5772,7 +5185,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="251" ht="15" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" s="5" t="s">
         <v>595</v>
       </c>
@@ -5780,7 +5193,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="252" ht="15" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" s="5" t="s">
         <v>597</v>
       </c>
@@ -5788,7 +5201,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="253" ht="15" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" s="5" t="s">
         <v>599</v>
       </c>
@@ -5796,7 +5209,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="254" ht="15" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" s="5" t="s">
         <v>601</v>
       </c>
@@ -5804,7 +5217,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="255" ht="15" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A255" s="5" t="s">
         <v>603</v>
       </c>
@@ -5812,7 +5225,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="256" ht="15" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A256" s="5" t="s">
         <v>605</v>
       </c>
@@ -5820,7 +5233,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="257" ht="15" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" s="5" t="s">
         <v>607</v>
       </c>
@@ -5828,7 +5241,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="258" ht="15" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" s="5" t="s">
         <v>609</v>
       </c>
@@ -5836,7 +5249,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="259" ht="15" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A259" s="5" t="s">
         <v>611</v>
       </c>
@@ -5844,7 +5257,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="260" ht="15" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A260" s="5" t="s">
         <v>613</v>
       </c>
@@ -5852,7 +5265,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="261" ht="15" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A261" s="5" t="s">
         <v>615</v>
       </c>
@@ -5860,7 +5273,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="262" ht="15" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A262" s="5" t="s">
         <v>617</v>
       </c>
@@ -5868,7 +5281,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="263" ht="15" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A263" s="5" t="s">
         <v>619</v>
       </c>
@@ -5876,7 +5289,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="264" ht="15" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" s="5" t="s">
         <v>621</v>
       </c>
@@ -5884,7 +5297,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="265" ht="15" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A265" s="5" t="s">
         <v>623</v>
       </c>
@@ -5892,7 +5305,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="266" ht="15" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A266" s="5" t="s">
         <v>625</v>
       </c>
@@ -5900,7 +5313,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="267" ht="15" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A267" s="5" t="s">
         <v>627</v>
       </c>
@@ -5908,7 +5321,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="268" ht="15" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" s="5" t="s">
         <v>629</v>
       </c>
@@ -5916,7 +5329,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="269" ht="15" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A269" s="5" t="s">
         <v>631</v>
       </c>
@@ -5924,7 +5337,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="270" ht="15" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A270" s="5" t="s">
         <v>633</v>
       </c>
@@ -5932,7 +5345,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="271" ht="15" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" s="5" t="s">
         <v>635</v>
       </c>
@@ -5940,7 +5353,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="272" ht="15" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" s="5" t="s">
         <v>637</v>
       </c>
@@ -5948,7 +5361,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="273" ht="15" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" s="5" t="s">
         <v>639</v>
       </c>
@@ -5956,7 +5369,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="274" ht="15" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A274" s="5" t="s">
         <v>641</v>
       </c>
@@ -5964,7 +5377,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="275" ht="15" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A275" s="5" t="s">
         <v>643</v>
       </c>
@@ -5972,7 +5385,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="276" ht="15" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A276" s="5" t="s">
         <v>645</v>
       </c>
@@ -5980,7 +5393,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="277" ht="15" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A277" s="5" t="s">
         <v>647</v>
       </c>
@@ -5988,7 +5401,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="278" ht="15" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" s="5" t="s">
         <v>649</v>
       </c>
@@ -5997,8 +5410,142 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <commentList sheetStid="1">
+    <comment s:ref="J1" rgbClr="FF0000">
+      <item id="{d5cff69f-b8da-4e65-b18b-939ab9a6eb59}" isNormal="1">
+        <s:text>
+          <s:r>
+            <s:t xml:space="preserve">日期格式：
+(yyyy-MM-dd)</s:t>
+          </s:r>
+        </s:text>
+      </item>
+    </comment>
+  </commentList>
+  <commentList sheetStid="2">
+    <comment s:ref="G1" rgbClr="FF0000">
+      <item id="{0aeeed25-7ccc-4b27-bf13-cb3bcf1ac4c3}" isNormal="1">
+        <s:text>
+          <s:r>
+            <s:t xml:space="preserve">限用物质必填；
+非限用物质可以不填；
+</s:t>
+          </s:r>
+        </s:text>
+      </item>
+    </comment>
+    <comment s:ref="I1" rgbClr="FF0000">
+      <item id="{4f93ece9-f88d-4128-9b09-cbbd58b4cafd}" isNormal="1">
+        <s:text>
+          <s:r>
+            <s:t xml:space="preserve">限用物质：是
+非限用物质：否</s:t>
+          </s:r>
+        </s:text>
+      </item>
+    </comment>
+    <comment s:ref="K1" rgbClr="FF0000">
+      <item id="{522f97e1-0a8a-40e8-848e-53858a078864}" isNormal="1">
+        <s:text>
+          <s:r>
+            <s:t xml:space="preserve">限用物质：必填
+非限用物质：可以不填</s:t>
+          </s:r>
+        </s:text>
+      </item>
+    </comment>
+  </commentList>
+  <commentList sheetStid="3">
+    <comment s:ref="L1" rgbClr="FF0000">
+      <item id="{73656e47-aab5-450a-b5b5-a4ff5b19e53c}" isNormal="1">
+        <s:text>
+          <s:r>
+            <s:t xml:space="preserve">值类型：范围值和精确值
+选择范围值：含量填MDL数字
+选择精确值：含量填具体检测值</s:t>
+          </s:r>
+        </s:text>
+      </item>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="5"/>
+</pixelators>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <woSheetsProps>
+    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="2" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="3" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="4" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+    <woSheetProps sheetStid="5" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
+  </woSheetsProps>
+  <woBookProps>
+    <bookSettings isFilterShared="1" isAutoUpdatePaused="0" filterType="conn"/>
+  </woBookProps>
+</woProps>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>